--- a/biology/Botanique/Ixia/Ixia.xlsx
+++ b/biology/Botanique/Ixia/Ixia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ixia est un genre de plantes à bulbes vivaces de la famille des Iridacées[3]. Le genre Ixia a été décrit en 1935 mais la plante en elle-même a été découverte en 1766 et ce genre rassemble environ 50 espèces. Elle vient d'Afrique du Sud. Nous la retrouvons dans beaucoup de jardins à la suite d'un regain d'intérêt pour ses fleurs.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ixia est un genre de plantes à bulbes vivaces de la famille des Iridacées. Le genre Ixia a été décrit en 1935 mais la plante en elle-même a été découverte en 1766 et ce genre rassemble environ 50 espèces. Elle vient d'Afrique du Sud. Nous la retrouvons dans beaucoup de jardins à la suite d'un regain d'intérêt pour ses fleurs.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « ixia » provient du grec ἰξία (« iksia ») et qui veut dire « gui ». En effet, les racines et la sève de l'ixia sont gluantes et collantes comme les fruits du gui, une plante qui est parasite et que nous offrons souvent à Noël.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'une plante vivace à bulbes[4] d'une hauteur comprise entre 30 et 40 centimètres (parfois, 50 cm ou même 80 cm)[5] et à croissance rapide.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'une plante vivace à bulbes d'une hauteur comprise entre 30 et 40 centimètres (parfois, 50 cm ou même 80 cm) et à croissance rapide.
 Son bulbe est semi-rustique, cela veut dire que son bulbe résiste à des températures modérément froides (entre −5 °C et 
 −10 °C).
 Sa tige est rectiligne et dressée entre deux feuilles en éventail.
@@ -587,9 +603,11 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Le genre Ixia se compose de plus ou moins 50 espèces (espèces hybrides comprises) et parmi les plus connues, on retrouve[6] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le genre Ixia se compose de plus ou moins 50 espèces (espèces hybrides comprises) et parmi les plus connues, on retrouve :
 Ixia aurea J. C. Manning &amp; Goldblatt
 Ixia acaulis Goldblatt &amp; J. C. Manning
 Ixia brevituba G.J. Lewis
@@ -700,7 +718,9 @@
           <t>Ennemis</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'ixia résiste très bien aux maladies et parasites.
 </t>
@@ -731,9 +751,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 février 2020)[7] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (15 février 2020) :
 Ixia abbreviata Houtt. (1780)
 variété Ixia abbreviata var. abbreviata
 variété Ixia abbreviata var. ovata (Andrews) Goldblatt &amp; J.C.Manning (2010)
@@ -850,7 +872,7 @@
 Ixia viridiflora Lam. (1789)
 variété Ixia viridiflora var. minor M.P.de Vos (1999)
 variété Ixia viridiflora var. viridiflora
-Selon The Plant List            (15 février 2020)[8] :
+Selon The Plant List            (15 février 2020) :
 Ixia abbreviata Houtt.
 Ixia acaulis Goldblatt &amp; J.C.Manning
 Ixia amethystina J.C.Manning &amp; Goldblatt
@@ -917,7 +939,7 @@
 Ixia versicolor G.J.Lewis
 Ixia vinacea G.J.Lewis
 Ixia viridiflora Lam.
-Selon Tropicos                                           (15 février 2020)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (15 février 2020) (Attention liste brute contenant possiblement des synonymes) :
 Ixia abbreviata Houtt.
 Ixia acaulis Goldblatt &amp; J.C. Manning
 Ixia acuta Licht. ex Roem. &amp; Schult.
